--- a/biology/Médecine/Christian_Boeck/Christian_Boeck.xlsx
+++ b/biology/Médecine/Christian_Boeck/Christian_Boeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Peter Bianco Boeck (5 septembre 1798 - 11 juillet 1877) était un médecin, botaniste et un zoologue norvégien. Il est principalement connu pour sa pharmacopée Pharmacopoea Norvegica (1854) et ses études des trilobites. C'est l'oncle de Cæsar Peter Møller Boeck.
 En 1838, il invité à participer à l'expédition française de La Recherche.
